--- a/src/main/resources/template/Quotation.xlsx
+++ b/src/main/resources/template/Quotation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17010" windowHeight="4245"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17010" windowHeight="7515"/>
   </bookViews>
   <sheets>
     <sheet name="Quote" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>QUOTATION</t>
-  </si>
-  <si>
-    <t>16-715 28 305B Punggol Rd</t>
   </si>
   <si>
     <t>https://www.vertex42.com/ExcelTemplates/quote-template.html</t>
@@ -170,6 +167,9 @@
   </si>
   <si>
     <t>DESCRIPTION OF Product Specs</t>
+  </si>
+  <si>
+    <t>#16-715 305B Punggol Rd</t>
   </si>
 </sst>
 </file>
@@ -1147,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H27" sqref="H20:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -1258,18 +1258,18 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="68"/>
       <c r="H4" s="36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="18"/>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -1302,7 +1302,7 @@
       <c r="G5" s="68"/>
       <c r="H5" s="37">
         <f ca="1">TODAY()</f>
-        <v>43878</v>
+        <v>43888</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="38"/>
@@ -1325,18 +1325,18 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="83" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" s="68"/>
       <c r="H6" s="36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="38"/>
@@ -1367,7 +1367,7 @@
       <c r="G7" s="68"/>
       <c r="H7" s="37">
         <f ca="1">H5+30</f>
-        <v>43908</v>
+        <v>43918</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="18"/>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="67"/>
       <c r="C9" s="68"/>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="15" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="67"/>
       <c r="C15" s="67"/>
@@ -1712,20 +1712,20 @@
     </row>
     <row r="19" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="48"/>
       <c r="C19" s="48"/>
       <c r="D19" s="49"/>
       <c r="E19" s="49"/>
       <c r="F19" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="36" t="s">
+      <c r="H19" s="36" t="s">
         <v>33</v>
-      </c>
-      <c r="H19" s="36" t="s">
-        <v>34</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="44"/>
@@ -1754,7 +1754,10 @@
       <c r="E20" s="14"/>
       <c r="F20" s="51"/>
       <c r="G20" s="52"/>
-      <c r="H20" s="53"/>
+      <c r="H20" s="53">
+        <f t="shared" ref="H20:H26" si="0">IF(F20="",ROUND(1*G20,2),ROUND(F20*G20,2))</f>
+        <v>0</v>
+      </c>
       <c r="I20" s="9"/>
       <c r="J20" s="38"/>
       <c r="K20" s="9"/>
@@ -1782,7 +1785,10 @@
       <c r="E21" s="14"/>
       <c r="F21" s="51"/>
       <c r="G21" s="52"/>
-      <c r="H21" s="53"/>
+      <c r="H21" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I21" s="9"/>
       <c r="J21" s="38"/>
       <c r="K21" s="9"/>
@@ -1810,7 +1816,10 @@
       <c r="E22" s="14"/>
       <c r="F22" s="51"/>
       <c r="G22" s="52"/>
-      <c r="H22" s="53"/>
+      <c r="H22" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I22" s="9"/>
       <c r="J22" s="44"/>
       <c r="K22" s="9"/>
@@ -1838,7 +1847,10 @@
       <c r="E23" s="14"/>
       <c r="F23" s="55"/>
       <c r="G23" s="56"/>
-      <c r="H23" s="53"/>
+      <c r="H23" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I23" s="9"/>
       <c r="J23" s="44"/>
       <c r="K23" s="9"/>
@@ -1867,7 +1879,7 @@
       <c r="F24" s="55"/>
       <c r="G24" s="56"/>
       <c r="H24" s="53">
-        <f>IF(F24="",ROUND(1*G24,2),ROUND(F24*G24,2))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I24" s="9"/>
@@ -1897,7 +1909,10 @@
       <c r="E25" s="14"/>
       <c r="F25" s="55"/>
       <c r="G25" s="56"/>
-      <c r="H25" s="53"/>
+      <c r="H25" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I25" s="9"/>
       <c r="J25" s="44"/>
       <c r="K25" s="9"/>
@@ -1925,7 +1940,10 @@
       <c r="E26" s="14"/>
       <c r="F26" s="55"/>
       <c r="G26" s="56"/>
-      <c r="H26" s="53"/>
+      <c r="H26" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I26" s="9"/>
       <c r="J26" s="44"/>
       <c r="K26" s="9"/>
@@ -1954,7 +1972,7 @@
       <c r="F27" s="55"/>
       <c r="G27" s="56"/>
       <c r="H27" s="53">
-        <f t="shared" ref="H27:H28" si="0">IF(F27="",ROUND(1*G27,2),ROUND(F27*G27,2))</f>
+        <f>IF(F27="",ROUND(1*G27,2),ROUND(F27*G27,2))</f>
         <v>0</v>
       </c>
       <c r="I27" s="9"/>
@@ -1985,7 +2003,7 @@
       <c r="F28" s="55"/>
       <c r="G28" s="56"/>
       <c r="H28" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H27:H28" si="1">IF(F28="",ROUND(1*G28,2),ROUND(F28*G28,2))</f>
         <v>0</v>
       </c>
       <c r="I28" s="9"/>
@@ -2009,14 +2027,14 @@
     </row>
     <row r="29" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="67"/>
       <c r="C29" s="67"/>
       <c r="D29" s="67"/>
       <c r="E29" s="68"/>
       <c r="F29" s="78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" s="67"/>
       <c r="H29" s="57">
@@ -2049,7 +2067,7 @@
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
       <c r="F30" s="78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G30" s="67"/>
       <c r="H30" s="59">
@@ -2081,7 +2099,7 @@
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
       <c r="F31" s="79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G31" s="80"/>
       <c r="H31" s="60">
@@ -2137,7 +2155,7 @@
     </row>
     <row r="33" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="73"/>
       <c r="C33" s="73"/>
@@ -2223,7 +2241,7 @@
     </row>
     <row r="36" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -2281,18 +2299,18 @@
     </row>
     <row r="38" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
       <c r="E38" s="65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="17"/>
       <c r="H38" s="65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2343,7 +2361,7 @@
     </row>
     <row r="40" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="73"/>
       <c r="C40" s="73"/>
@@ -29262,12 +29280,12 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="9"/>
     </row>
@@ -29280,7 +29298,7 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="29"/>
       <c r="C4" s="30"/>
@@ -29290,7 +29308,7 @@
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
       <c r="B5" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="31"/>
@@ -29306,7 +29324,7 @@
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17"/>
       <c r="B7" s="33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="31"/>
@@ -29364,7 +29382,7 @@
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
       <c r="B9" s="34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="31"/>
@@ -29394,7 +29412,7 @@
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17"/>
       <c r="B10" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="31"/>
@@ -29458,7 +29476,7 @@
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="35"/>
       <c r="C13" s="30"/>
@@ -29489,7 +29507,7 @@
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="B14" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="31"/>
@@ -29525,7 +29543,7 @@
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="35"/>
       <c r="C16" s="30"/>
@@ -29535,7 +29553,7 @@
     <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
       <c r="B17" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="31"/>
@@ -36460,14 +36478,14 @@
     <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="6"/>
     </row>
@@ -36479,7 +36497,7 @@
     <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="6"/>
     </row>
@@ -36491,7 +36509,7 @@
     <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="6"/>
     </row>
@@ -36503,7 +36521,7 @@
     <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="6"/>
     </row>
@@ -36515,7 +36533,7 @@
     <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="6"/>
     </row>
@@ -36527,7 +36545,7 @@
     <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="6"/>
     </row>
@@ -36539,7 +36557,7 @@
     <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="6"/>
     </row>
